--- a/autres/tableau_synthèse.xlsx
+++ b/autres/tableau_synthèse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Macintosh HD-1/Users/Shared/Référentiels, programmes/Référentiels STS/SIO/Circulaire définitive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64_2\www\PHP\Portfolio\autres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DDB43FA-6B5A-48C8-A608-40FA952861C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FECA6F8-63C0-4470-A6D4-328B925DA4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="980" windowWidth="36400" windowHeight="25800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -36,26 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
   <si>
-    <t>SESSION 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>Option :</t>
   </si>
   <si>
@@ -63,9 +54,6 @@
   </si>
   <si>
     <t>▢ SLAM</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio :</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -136,6 +124,67 @@
   </si>
   <si>
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
+  </si>
+  <si>
+    <t>SESSION 2023</t>
+  </si>
+  <si>
+    <t>NOM et prénom : STEVENS Geoffrey</t>
+  </si>
+  <si>
+    <t>Centre de formation : IPSSI</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://balixt.github.io/portfolio/</t>
+  </si>
+  <si>
+    <t>Réalisation de l'inventaire du matériel IPSSI</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>du 10/11/22
+au 10/11/22</t>
+  </si>
+  <si>
+    <t>Réalisation d'un site vitrine PC Repair en HTML, CSS</t>
+  </si>
+  <si>
+    <t>Réalisation du site M2L en ReactJS, NodeJS, MySQL</t>
+  </si>
+  <si>
+    <t>Mise en place et gestion de ticket avec GLPI</t>
+  </si>
+  <si>
+    <t>Réalisation d'une application mobile en dart/flutter, NodeJS, MySQL</t>
+  </si>
+  <si>
+    <t>Mise en place d'outils de veilles informationnels</t>
+  </si>
+  <si>
+    <t>Création d'un compte linkedin</t>
+  </si>
+  <si>
+    <t>Réalisation d'une bibliothèque en ligne en HTML,CSS, PHP, MySQL</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Réalisation d'une API en C#</t>
+  </si>
+  <si>
+    <t>Réalisation d'une API et son portail en C#, bootstrap</t>
+  </si>
+  <si>
+    <t>Réalisation d'un script PowerShell permettant de récupérer les informations d'une base de données MariaDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conception UML2 et gestion de projet pour le site web et l'application mobile M2L </t>
+  </si>
+  <si>
+    <t>Réalisation de tests unitaires sur une API REST de gestion des films</t>
   </si>
 </sst>
 </file>
@@ -145,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -607,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -671,6 +720,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,7 +809,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1082,138 +1134,138 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.42578125" customWidth="1"/>
-    <col min="44" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.44140625" customWidth="1"/>
+    <col min="44" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="30"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="31"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="12" t="s">
+    </row>
+    <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A5" s="41" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="F7" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>23</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1251,17 +1303,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A8" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1298,14 +1350,24 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="E9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="16"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -1343,10 +1405,16 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="15"/>
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -1388,12 +1456,16 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
@@ -1433,13 +1505,17 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
       <c r="I12"/>
@@ -1478,14 +1554,20 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="B13" s="8"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="G13" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="H13" s="16"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -1523,11 +1605,15 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -1568,13 +1654,17 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="15"/>
       <c r="H15" s="16"/>
       <c r="I15"/>
@@ -1613,14 +1703,20 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="B16" s="8"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="H16" s="16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -1658,15 +1754,19 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A17" s="9"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="B17" s="8"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="H17" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1703,15 +1803,19 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A18" s="9"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="B18" s="8"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="H18" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1748,17 +1852,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A19" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1795,12 +1899,16 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="B20" s="8"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
@@ -1840,7 +1948,7 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="8"/>
       <c r="C21" s="15"/>
@@ -1885,7 +1993,7 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="C22" s="15"/>
@@ -1930,7 +2038,7 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="8"/>
       <c r="C23" s="15"/>
@@ -1975,7 +2083,7 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
       <c r="C24" s="15"/>
@@ -2020,7 +2128,7 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
       <c r="C25" s="15"/>
@@ -2065,7 +2173,7 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="8"/>
       <c r="C26" s="15"/>
@@ -2110,17 +2218,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A27" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2157,14 +2265,20 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="B28" s="8"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="E28" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="G28" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="H28" s="16"/>
       <c r="I28"/>
       <c r="J28"/>
@@ -2202,12 +2316,16 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A29" s="9"/>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="B29" s="8"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="E29" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="16"/>
@@ -2247,7 +2365,7 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
       <c r="C30" s="15"/>
@@ -2292,7 +2410,7 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
       <c r="C31" s="15"/>
@@ -2337,7 +2455,7 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
       <c r="C32" s="15"/>
@@ -2382,7 +2500,7 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="8"/>
       <c r="C33" s="15"/>
@@ -2427,7 +2545,7 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -2472,7 +2590,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="14.1">
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2517,52 +2635,52 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1"/>
-    <row r="37" spans="1:43" customFormat="1"/>
-    <row r="38" spans="1:43" customFormat="1"/>
-    <row r="39" spans="1:43" customFormat="1"/>
-    <row r="40" spans="1:43" customFormat="1"/>
-    <row r="41" spans="1:43" customFormat="1"/>
-    <row r="42" spans="1:43" customFormat="1"/>
-    <row r="43" spans="1:43" customFormat="1"/>
-    <row r="44" spans="1:43" customFormat="1"/>
-    <row r="45" spans="1:43" customFormat="1"/>
-    <row r="46" spans="1:43" customFormat="1"/>
-    <row r="47" spans="1:43" customFormat="1"/>
-    <row r="48" spans="1:43" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-    <row r="63" customFormat="1"/>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A6:A7"/>
@@ -2784,13 +2902,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a54630e7-b857-4bdf-808b-f1da7c130004"/>
+    <ds:schemaRef ds:uri="57e91659-be1d-4d29-8a34-37188ca8e23d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07AC6487-DDB9-4C2F-B4AD-A5CAA4E81AC6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07AC6487-DDB9-4C2F-B4AD-A5CAA4E81AC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E80AFF07-7FC7-4CD0-8E8A-23626E30AA55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E80AFF07-7FC7-4CD0-8E8A-23626E30AA55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a54630e7-b857-4bdf-808b-f1da7c130004"/>
+    <ds:schemaRef ds:uri="57e91659-be1d-4d29-8a34-37188ca8e23d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/autres/tableau_synthèse.xlsx
+++ b/autres/tableau_synthèse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64_2\www\PHP\Portfolio\autres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FECA6F8-63C0-4470-A6D4-328B925DA4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5F1A47-8FCD-4A4D-AAAB-87F315DCFD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
   <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
     <t>Option :</t>
@@ -138,9 +135,6 @@
     <t>Adresse URL du portfolio : https://balixt.github.io/portfolio/</t>
   </si>
   <si>
-    <t>Réalisation de l'inventaire du matériel IPSSI</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -160,18 +154,12 @@
     <t>Réalisation d'une application mobile en dart/flutter, NodeJS, MySQL</t>
   </si>
   <si>
-    <t>Mise en place d'outils de veilles informationnels</t>
-  </si>
-  <si>
     <t>Création d'un compte linkedin</t>
   </si>
   <si>
     <t>Réalisation d'une bibliothèque en ligne en HTML,CSS, PHP, MySQL</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Réalisation d'une API en C#</t>
   </si>
   <si>
@@ -185,6 +173,59 @@
   </si>
   <si>
     <t>Réalisation de tests unitaires sur une API REST de gestion des films</t>
+  </si>
+  <si>
+    <t>N° candidat : 02244065415</t>
+  </si>
+  <si>
+    <t>du 01/01/22
+au 01/03/22</t>
+  </si>
+  <si>
+    <t>du 12/11/22
+ au 12/11/22</t>
+  </si>
+  <si>
+    <t>du 01/11/22 
+au 07/02/23</t>
+  </si>
+  <si>
+    <t>du 10/01/23
+au 10/01/23</t>
+  </si>
+  <si>
+    <t>du 13/03/23
+au 16/03/23</t>
+  </si>
+  <si>
+    <t>du 28/11/22
+ au 30/11/22</t>
+  </si>
+  <si>
+    <t>du 07/02/23
+au 30/03/23</t>
+  </si>
+  <si>
+    <t>Mise en place d'outils de veilles informationnelles</t>
+  </si>
+  <si>
+    <t>du 01/02/22
+au 01/02/22</t>
+  </si>
+  <si>
+    <t>du 10/10/21
+au 10/10/21</t>
+  </si>
+  <si>
+    <t>du 18/05/22
+au 29/06/22</t>
+  </si>
+  <si>
+    <t>du 05/09/22
+au 31/07/23</t>
+  </si>
+  <si>
+    <t>Réalisation de l'inventaire matériel informatique</t>
   </si>
 </sst>
 </file>
@@ -724,9 +765,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -749,45 +829,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,6 +847,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>262107</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>229747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>376227</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>321907</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Encre 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C746F6B-B2A9-EC4F-D712-344AF3730396}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12344040" y="1745280"/>
+            <a:ext cx="114120" cy="92160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Encre 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C746F6B-B2A9-EC4F-D712-344AF3730396}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12335400" y="1736640"/>
+              <a:ext cx="131760" cy="109800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-04-12T08:02:17.294"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">214 1 24575,'0'0'0,"0"0"0,0 0 0,-15 25 0,-39 28 0,40-41 0,1 0 0,0 1 0,1 1 0,-11 16 0,22-27 0,0-1 0,-1 1 0,1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 3 0,1-3 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,-1 1 0,-1 2 0,8-6-1365</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1092.75">1 14 24575,'0'0'0,"0"0"0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,7 15 0,12 8-136,0-1-1,2-1 1,0 0-1,1-2 1,1 0-1,1-2 1,1 0-1,0-2 0,48 22 1,-36-21-6690</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1134,8 +1273,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1148,124 +1287,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="31"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="44"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>19</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1304,16 +1443,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="A8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1352,21 +1491,19 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F9" s="15"/>
       <c r="G9" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9"/>
@@ -1407,13 +1544,13 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1458,13 +1595,15 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -1507,14 +1646,16 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
@@ -1556,17 +1697,19 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13"/>
@@ -1607,12 +1750,14 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="C14" s="15"/>
       <c r="D14" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -1656,14 +1801,16 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="16"/>
@@ -1705,17 +1852,19 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16"/>
@@ -1756,16 +1905,18 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -1805,16 +1956,18 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -1853,16 +2006,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="A19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1901,13 +2054,15 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
@@ -2219,16 +2374,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="A27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2267,17 +2422,19 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28"/>
@@ -2318,13 +2475,15 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -2683,6 +2842,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2690,41 +2854,17 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a54630e7-b857-4bdf-808b-f1da7c130004">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="57e91659-be1d-4d29-8a34-37188ca8e23d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002338DD58AC86894E92A5BEFCB2D30A8D" ma:contentTypeVersion="8" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="700c2819335392f8cd4623d4758d04be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a54630e7-b857-4bdf-808b-f1da7c130004" xmlns:ns3="57e91659-be1d-4d29-8a34-37188ca8e23d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1df745bac39590b2e88383e01c0cd2f" ns2:_="" ns3:_="">
     <xsd:import namespace="a54630e7-b857-4bdf-808b-f1da7c130004"/>
@@ -2901,26 +3041,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a54630e7-b857-4bdf-808b-f1da7c130004"/>
-    <ds:schemaRef ds:uri="57e91659-be1d-4d29-8a34-37188ca8e23d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07AC6487-DDB9-4C2F-B4AD-A5CAA4E81AC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a54630e7-b857-4bdf-808b-f1da7c130004">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="57e91659-be1d-4d29-8a34-37188ca8e23d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E80AFF07-7FC7-4CD0-8E8A-23626E30AA55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2937,4 +3078,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07AC6487-DDB9-4C2F-B4AD-A5CAA4E81AC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a54630e7-b857-4bdf-808b-f1da7c130004"/>
+    <ds:schemaRef ds:uri="57e91659-be1d-4d29-8a34-37188ca8e23d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>